--- a/Food Database Data.xlsx
+++ b/Food Database Data.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
